--- a/Assets/06.Table/YeonokTowerTable.xlsx
+++ b/Assets/06.Table/YeonokTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A827D2F3-C2F6-499D-9E62-EAD61EE637CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B5A70-6305-468A-A152-21CB1BF66F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YeonokTowerTable" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,14 @@
   </si>
   <si>
     <t>연</t>
+  </si>
+  <si>
+    <t>난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -638,7 +646,51 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -971,11 +1023,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1842,11 +1894,533 @@
         <v>6800</v>
       </c>
     </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>10003</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2.5456999999999997E+228</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>10003</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>7.6399999999999992E+228</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>10003</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2.2919999999999999E+229</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>10003</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>6.8759999999999997E+229</v>
+      </c>
+      <c r="G30">
+        <v>1000</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>10003</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2.0627999999999997E+230</v>
+      </c>
+      <c r="G31">
+        <v>1000</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>10003</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>6.1883999999999999E+230</v>
+      </c>
+      <c r="G32">
+        <v>1000</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>10003</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1.8565199999999999E+231</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>10003</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>5.5695599999999997E+231</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>10003</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1.6709000000000003E+232</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>10003</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>5.0199999999999996E+232</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>10003</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1.5060000000000002E+233</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>10003</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>4.5180000000000004E+233</v>
+      </c>
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>10003</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1.3553999999999999E+234</v>
+      </c>
+      <c r="G39">
+        <v>1000</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>10003</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>4.0662000000000006E+234</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>10003</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1.21986E+235</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>10003</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3.6595800000000004E+235</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J21 G22:J26 A22:E26">
+  <conditionalFormatting sqref="A2:J21 A22:E26 G22:J26 G27:H42 J27:J42 E27:E34 B26:B42 A27:A42">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$C2=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I42">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C27=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C42">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C2=5</formula>
+      <formula>$C27=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1858,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G50" sqref="G35:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3441,23 +4015,23 @@
       </c>
       <c r="F43" s="17" t="str">
         <f>H43&amp;I43</f>
-        <v>1.67090</v>
-      </c>
-      <c r="G43" s="17" t="e">
+        <v>1.6709난</v>
+      </c>
+      <c r="G43" s="17">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
+        <v>1.6709000000000003E+232</v>
       </c>
       <c r="H43" s="17">
         <f t="shared" si="5"/>
         <v>1.6709000000000001</v>
       </c>
-      <c r="I43" s="16" cm="1">
+      <c r="I43" s="16" t="str" cm="1">
         <f t="array" ref="I43">IF(AND(H42&gt;100,H43&lt;10),INDEX(L:L,MATCH(I42,L:L,0)+1,0),I42)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="16" t="e">
+        <v>난</v>
+      </c>
+      <c r="J43" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+232</v>
       </c>
       <c r="L43" s="16" t="s">
         <v>62</v>
@@ -3489,23 +4063,23 @@
       </c>
       <c r="F44" s="17" t="str">
         <f t="shared" ref="F44:F48" si="16">H44&amp;I44</f>
-        <v>5.020</v>
-      </c>
-      <c r="G44" s="17" t="e">
+        <v>5.02난</v>
+      </c>
+      <c r="G44" s="17">
         <f t="shared" ref="G44:G48" si="17">H44*J44</f>
-        <v>#N/A</v>
+        <v>5.0199999999999996E+232</v>
       </c>
       <c r="H44" s="17">
         <f t="shared" si="5"/>
         <v>5.0199999999999996</v>
       </c>
-      <c r="I44" s="16" cm="1">
+      <c r="I44" s="16" t="str" cm="1">
         <f t="array" ref="I44">IF(AND(H43&gt;100,H44&lt;10),INDEX(L:L,MATCH(I43,L:L,0)+1,0),I43)</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="16" t="e">
+        <v>난</v>
+      </c>
+      <c r="J44" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+232</v>
       </c>
       <c r="L44" s="16" t="s">
         <v>63</v>
@@ -3537,23 +4111,23 @@
       </c>
       <c r="F45" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>15.060</v>
-      </c>
-      <c r="G45" s="17" t="e">
+        <v>15.06난</v>
+      </c>
+      <c r="G45" s="17">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>1.5060000000000002E+233</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="5"/>
         <v>15.06</v>
       </c>
-      <c r="I45" s="16" cm="1">
+      <c r="I45" s="16" t="str" cm="1">
         <f t="array" ref="I45">IF(AND(H44&gt;100,H45&lt;10),INDEX(L:L,MATCH(I44,L:L,0)+1,0),I44)</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="16" t="e">
+        <v>난</v>
+      </c>
+      <c r="J45" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+232</v>
       </c>
       <c r="L45" s="16" t="s">
         <v>64</v>
@@ -3585,23 +4159,23 @@
       </c>
       <c r="F46" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>45.180</v>
-      </c>
-      <c r="G46" s="17" t="e">
+        <v>45.18난</v>
+      </c>
+      <c r="G46" s="17">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>4.5180000000000004E+233</v>
       </c>
       <c r="H46" s="17">
         <f t="shared" si="5"/>
         <v>45.18</v>
       </c>
-      <c r="I46" s="16" cm="1">
+      <c r="I46" s="16" t="str" cm="1">
         <f t="array" ref="I46">IF(AND(H45&gt;100,H46&lt;10),INDEX(L:L,MATCH(I45,L:L,0)+1,0),I45)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="16" t="e">
+        <v>난</v>
+      </c>
+      <c r="J46" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+232</v>
       </c>
       <c r="L46" s="16" t="s">
         <v>65</v>
@@ -3633,23 +4207,23 @@
       </c>
       <c r="F47" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>135.540</v>
-      </c>
-      <c r="G47" s="17" t="e">
+        <v>135.54난</v>
+      </c>
+      <c r="G47" s="17">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>1.3553999999999999E+234</v>
       </c>
       <c r="H47" s="17">
         <f t="shared" si="5"/>
         <v>135.54</v>
       </c>
-      <c r="I47" s="16" cm="1">
+      <c r="I47" s="16" t="str" cm="1">
         <f t="array" ref="I47">IF(AND(H46&gt;100,H47&lt;10),INDEX(L:L,MATCH(I46,L:L,0)+1,0),I46)</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="16" t="e">
+        <v>난</v>
+      </c>
+      <c r="J47" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+232</v>
       </c>
       <c r="L47" s="16" t="s">
         <v>66</v>
@@ -3681,23 +4255,23 @@
       </c>
       <c r="F48" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>406.620</v>
-      </c>
-      <c r="G48" s="17" t="e">
+        <v>406.62난</v>
+      </c>
+      <c r="G48" s="17">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>4.0662000000000006E+234</v>
       </c>
       <c r="H48" s="17">
         <f t="shared" si="5"/>
         <v>406.62</v>
       </c>
-      <c r="I48" s="16" cm="1">
+      <c r="I48" s="16" t="str" cm="1">
         <f t="array" ref="I48">IF(AND(H47&gt;100,H48&lt;10),INDEX(L:L,MATCH(I47,L:L,0)+1,0),I47)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="16" t="e">
+        <v>난</v>
+      </c>
+      <c r="J48" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+232</v>
       </c>
       <c r="L48" s="16" t="s">
         <v>74</v>
@@ -3729,23 +4303,23 @@
       </c>
       <c r="F49" s="17" t="str">
         <f t="shared" ref="F49:F53" si="22">H49&amp;I49</f>
-        <v>1219.860</v>
-      </c>
-      <c r="G49" s="17" t="e">
+        <v>1219.86난</v>
+      </c>
+      <c r="G49" s="17">
         <f t="shared" ref="G49:G53" si="23">H49*J49</f>
-        <v>#N/A</v>
+        <v>1.21986E+235</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" si="5"/>
         <v>1219.8599999999999</v>
       </c>
-      <c r="I49" s="16" cm="1">
+      <c r="I49" s="16" t="str" cm="1">
         <f t="array" ref="I49">IF(AND(H48&gt;100,H49&lt;10),INDEX(L:L,MATCH(I48,L:L,0)+1,0),I48)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="16" t="e">
+        <v>난</v>
+      </c>
+      <c r="J49" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+232</v>
       </c>
       <c r="L49" s="16" t="s">
         <v>75</v>
@@ -3777,23 +4351,23 @@
       </c>
       <c r="F50" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>3659.580</v>
-      </c>
-      <c r="G50" s="17" t="e">
+        <v>3659.58난</v>
+      </c>
+      <c r="G50" s="17">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>3.6595800000000004E+235</v>
       </c>
       <c r="H50" s="17">
         <f t="shared" si="5"/>
         <v>3659.58</v>
       </c>
-      <c r="I50" s="16" cm="1">
+      <c r="I50" s="16" t="str" cm="1">
         <f t="array" ref="I50">IF(AND(H49&gt;100,H50&lt;10),INDEX(L:L,MATCH(I49,L:L,0)+1,0),I49)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="16" t="e">
+        <v>난</v>
+      </c>
+      <c r="J50" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+232</v>
       </c>
       <c r="L50" s="16" t="s">
         <v>76</v>
@@ -3823,25 +4397,25 @@
       <c r="E51" s="16">
         <v>43</v>
       </c>
-      <c r="F51" s="17" t="e">
+      <c r="F51" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G51" s="17" t="e">
+        <v>1.0979군</v>
+      </c>
+      <c r="G51" s="17">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>1.0979000000000002E+236</v>
       </c>
       <c r="H51" s="17">
         <f t="shared" si="5"/>
         <v>1.0979000000000001</v>
       </c>
-      <c r="I51" s="16" t="e" cm="1">
+      <c r="I51" s="16" t="str" cm="1">
         <f t="array" ref="I51">IF(AND(H50&gt;100,H51&lt;10),INDEX(L:L,MATCH(I50,L:L,0)+1,0),I50)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J51" s="16" t="e">
+        <v>군</v>
+      </c>
+      <c r="J51" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+236</v>
       </c>
       <c r="L51" s="16" t="s">
         <v>77</v>
@@ -3871,25 +4445,25 @@
       <c r="E52" s="16">
         <v>44</v>
       </c>
-      <c r="F52" s="17" t="e">
+      <c r="F52" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G52" s="17" t="e">
+        <v>3.3군</v>
+      </c>
+      <c r="G52" s="17">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>3.2999999999999999E+236</v>
       </c>
       <c r="H52" s="17">
         <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
-      <c r="I52" s="16" t="e" cm="1">
+      <c r="I52" s="16" t="str" cm="1">
         <f t="array" ref="I52">IF(AND(H51&gt;100,H52&lt;10),INDEX(L:L,MATCH(I51,L:L,0)+1,0),I51)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J52" s="16" t="e">
+        <v>군</v>
+      </c>
+      <c r="J52" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+236</v>
       </c>
       <c r="L52" s="16" t="s">
         <v>78</v>
@@ -3919,25 +4493,25 @@
       <c r="E53" s="16">
         <v>45</v>
       </c>
-      <c r="F53" s="17" t="e">
+      <c r="F53" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G53" s="17" t="e">
+        <v>9.9군</v>
+      </c>
+      <c r="G53" s="17">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>9.9000000000000006E+236</v>
       </c>
       <c r="H53" s="17">
         <f t="shared" si="5"/>
         <v>9.9</v>
       </c>
-      <c r="I53" s="16" t="e" cm="1">
+      <c r="I53" s="16" t="str" cm="1">
         <f t="array" ref="I53">IF(AND(H52&gt;100,H53&lt;10),INDEX(L:L,MATCH(I52,L:L,0)+1,0),I52)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J53" s="16" t="e">
+        <v>군</v>
+      </c>
+      <c r="J53" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+236</v>
       </c>
       <c r="L53" s="16" t="s">
         <v>67</v>
@@ -3967,25 +4541,25 @@
       <c r="E54" s="16">
         <v>46</v>
       </c>
-      <c r="F54" s="17" t="e">
+      <c r="F54" s="17" t="str">
         <f t="shared" ref="F54:F58" si="26">H54&amp;I54</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G54" s="17" t="e">
+        <v>29.7군</v>
+      </c>
+      <c r="G54" s="17">
         <f t="shared" ref="G54:G58" si="27">H54*J54</f>
-        <v>#N/A</v>
+        <v>2.97E+237</v>
       </c>
       <c r="H54" s="17">
         <f t="shared" si="5"/>
         <v>29.7</v>
       </c>
-      <c r="I54" s="16" t="e" cm="1">
+      <c r="I54" s="16" t="str" cm="1">
         <f t="array" ref="I54">IF(AND(H53&gt;100,H54&lt;10),INDEX(L:L,MATCH(I53,L:L,0)+1,0),I53)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J54" s="16" t="e">
+        <v>군</v>
+      </c>
+      <c r="J54" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+236</v>
       </c>
       <c r="L54" s="16" t="s">
         <v>68</v>
@@ -4015,25 +4589,25 @@
       <c r="E55" s="16">
         <v>47</v>
       </c>
-      <c r="F55" s="17" t="e">
+      <c r="F55" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G55" s="17" t="e">
+        <v>89.1군</v>
+      </c>
+      <c r="G55" s="17">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>8.9099999999999996E+237</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="5"/>
         <v>89.1</v>
       </c>
-      <c r="I55" s="16" t="e" cm="1">
+      <c r="I55" s="16" t="str" cm="1">
         <f t="array" ref="I55">IF(AND(H54&gt;100,H55&lt;10),INDEX(L:L,MATCH(I54,L:L,0)+1,0),I54)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J55" s="16" t="e">
+        <v>군</v>
+      </c>
+      <c r="J55" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+236</v>
       </c>
       <c r="L55" s="16" t="s">
         <v>69</v>
@@ -4063,25 +4637,25 @@
       <c r="E56" s="16">
         <v>48</v>
       </c>
-      <c r="F56" s="17" t="e">
+      <c r="F56" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G56" s="17" t="e">
+        <v>267.3군</v>
+      </c>
+      <c r="G56" s="17">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>2.6730000000000005E+238</v>
       </c>
       <c r="H56" s="17">
         <f t="shared" si="5"/>
         <v>267.3</v>
       </c>
-      <c r="I56" s="16" t="e" cm="1">
+      <c r="I56" s="16" t="str" cm="1">
         <f t="array" ref="I56">IF(AND(H55&gt;100,H56&lt;10),INDEX(L:L,MATCH(I55,L:L,0)+1,0),I55)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>군</v>
+      </c>
+      <c r="J56" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+236</v>
       </c>
       <c r="L56" s="16" t="s">
         <v>70</v>
@@ -4111,25 +4685,25 @@
       <c r="E57" s="16">
         <v>49</v>
       </c>
-      <c r="F57" s="17" t="e">
+      <c r="F57" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G57" s="17" t="e">
+        <v>801.9군</v>
+      </c>
+      <c r="G57" s="17">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>8.0190000000000002E+238</v>
       </c>
       <c r="H57" s="17">
         <f t="shared" si="5"/>
         <v>801.9</v>
       </c>
-      <c r="I57" s="16" t="e" cm="1">
+      <c r="I57" s="16" t="str" cm="1">
         <f t="array" ref="I57">IF(AND(H56&gt;100,H57&lt;10),INDEX(L:L,MATCH(I56,L:L,0)+1,0),I56)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>군</v>
+      </c>
+      <c r="J57" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+236</v>
       </c>
       <c r="L57" s="16" t="s">
         <v>71</v>
@@ -4159,25 +4733,25 @@
       <c r="E58" s="16">
         <v>50</v>
       </c>
-      <c r="F58" s="17" t="e">
+      <c r="F58" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G58" s="17" t="e">
+        <v>2405.7군</v>
+      </c>
+      <c r="G58" s="17">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>2.4057E+239</v>
       </c>
       <c r="H58" s="17">
         <f t="shared" si="5"/>
         <v>2405.6999999999998</v>
       </c>
-      <c r="I58" s="16" t="e" cm="1">
+      <c r="I58" s="16" t="str" cm="1">
         <f t="array" ref="I58">IF(AND(H57&gt;100,H58&lt;10),INDEX(L:L,MATCH(I57,L:L,0)+1,0),I57)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>군</v>
+      </c>
+      <c r="J58" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+236</v>
       </c>
       <c r="L58" s="16" t="s">
         <v>72</v>
@@ -4207,25 +4781,25 @@
       <c r="E59" s="16">
         <v>51</v>
       </c>
-      <c r="F59" s="17" t="e">
+      <c r="F59" s="17" t="str">
         <f t="shared" ref="F59:F78" si="32">H59&amp;I59</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G59" s="17" t="e">
+        <v>7217.1군</v>
+      </c>
+      <c r="G59" s="17">
         <f t="shared" ref="G59:G78" si="33">H59*J59</f>
-        <v>#N/A</v>
+        <v>7.2171000000000008E+239</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="5"/>
         <v>7217.1</v>
       </c>
-      <c r="I59" s="16" t="e" cm="1">
+      <c r="I59" s="16" t="str" cm="1">
         <f t="array" ref="I59">IF(AND(H58&gt;100,H59&lt;10),INDEX(L:L,MATCH(I58,L:L,0)+1,0),I58)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J59" s="16" t="e">
+        <v>군</v>
+      </c>
+      <c r="J59" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+236</v>
       </c>
       <c r="L59" s="16" t="s">
         <v>81</v>
@@ -4255,9 +4829,9 @@
       <c r="E60" s="16">
         <v>52</v>
       </c>
-      <c r="F60" s="17" t="e">
+      <c r="F60" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>2.16520</v>
       </c>
       <c r="G60" s="17" t="e">
         <f t="shared" si="33"/>
@@ -4267,9 +4841,9 @@
         <f t="shared" si="5"/>
         <v>2.1652</v>
       </c>
-      <c r="I60" s="16" t="e" cm="1">
+      <c r="I60" s="16" cm="1">
         <f t="array" ref="I60">IF(AND(H59&gt;100,H60&lt;10),INDEX(L:L,MATCH(I59,L:L,0)+1,0),I59)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J60" s="16" t="e">
         <f t="shared" si="12"/>
@@ -4303,9 +4877,9 @@
       <c r="E61" s="16">
         <v>53</v>
       </c>
-      <c r="F61" s="17" t="e">
+      <c r="F61" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>6.50</v>
       </c>
       <c r="G61" s="17" t="e">
         <f t="shared" si="33"/>
@@ -4315,9 +4889,9 @@
         <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
-      <c r="I61" s="16" t="e" cm="1">
+      <c r="I61" s="16" cm="1">
         <f t="array" ref="I61">IF(AND(H60&gt;100,H61&lt;10),INDEX(L:L,MATCH(I60,L:L,0)+1,0),I60)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J61" s="16" t="e">
         <f t="shared" si="12"/>
@@ -4351,9 +4925,9 @@
       <c r="E62" s="16">
         <v>54</v>
       </c>
-      <c r="F62" s="17" t="e">
+      <c r="F62" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>19.50</v>
       </c>
       <c r="G62" s="17" t="e">
         <f t="shared" si="33"/>
@@ -4363,9 +4937,9 @@
         <f t="shared" si="5"/>
         <v>19.5</v>
       </c>
-      <c r="I62" s="16" t="e" cm="1">
+      <c r="I62" s="16" cm="1">
         <f t="array" ref="I62">IF(AND(H61&gt;100,H62&lt;10),INDEX(L:L,MATCH(I61,L:L,0)+1,0),I61)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J62" s="16" t="e">
         <f t="shared" si="12"/>
@@ -4399,9 +4973,9 @@
       <c r="E63" s="16">
         <v>55</v>
       </c>
-      <c r="F63" s="17" t="e">
+      <c r="F63" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>58.50</v>
       </c>
       <c r="G63" s="17" t="e">
         <f t="shared" si="33"/>
@@ -4411,9 +4985,9 @@
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="I63" s="16" t="e" cm="1">
+      <c r="I63" s="16" cm="1">
         <f t="array" ref="I63">IF(AND(H62&gt;100,H63&lt;10),INDEX(L:L,MATCH(I62,L:L,0)+1,0),I62)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J63" s="16" t="e">
         <f t="shared" si="12"/>
@@ -4447,9 +5021,9 @@
       <c r="E64" s="16">
         <v>56</v>
       </c>
-      <c r="F64" s="17" t="e">
+      <c r="F64" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>175.50</v>
       </c>
       <c r="G64" s="17" t="e">
         <f t="shared" si="33"/>
@@ -4459,9 +5033,9 @@
         <f t="shared" si="5"/>
         <v>175.5</v>
       </c>
-      <c r="I64" s="16" t="e" cm="1">
+      <c r="I64" s="16" cm="1">
         <f t="array" ref="I64">IF(AND(H63&gt;100,H64&lt;10),INDEX(L:L,MATCH(I63,L:L,0)+1,0),I63)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J64" s="16" t="e">
         <f t="shared" si="12"/>
@@ -4495,9 +5069,9 @@
       <c r="E65" s="16">
         <v>57</v>
       </c>
-      <c r="F65" s="17" t="e">
+      <c r="F65" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>526.50</v>
       </c>
       <c r="G65" s="17" t="e">
         <f t="shared" si="33"/>
@@ -4507,18 +5081,28 @@
         <f t="shared" si="5"/>
         <v>526.5</v>
       </c>
-      <c r="I65" s="16" t="e" cm="1">
+      <c r="I65" s="16" cm="1">
         <f t="array" ref="I65">IF(AND(H64&gt;100,H65&lt;10),INDEX(L:L,MATCH(I64,L:L,0)+1,0),I64)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J65" s="16" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
+      <c r="L65" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M65" s="16">
+        <v>232</v>
+      </c>
+      <c r="N65" s="17">
+        <f t="shared" ref="N65:N66" si="38">POWER(10,M65)</f>
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="O65" s="17" t="str">
+        <f t="shared" ref="O65:O66" si="39">RIGHT(N65,M65)</f>
+        <v>1E+232</v>
+      </c>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
@@ -4533,9 +5117,9 @@
       <c r="E66" s="16">
         <v>58</v>
       </c>
-      <c r="F66" s="17" t="e">
+      <c r="F66" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>1579.50</v>
       </c>
       <c r="G66" s="17" t="e">
         <f t="shared" si="33"/>
@@ -4545,18 +5129,28 @@
         <f t="shared" si="5"/>
         <v>1579.5</v>
       </c>
-      <c r="I66" s="16" t="e" cm="1">
+      <c r="I66" s="16" cm="1">
         <f t="array" ref="I66">IF(AND(H65&gt;100,H66&lt;10),INDEX(L:L,MATCH(I65,L:L,0)+1,0),I65)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J66" s="16" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
+      <c r="L66" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M66" s="16">
+        <v>236</v>
+      </c>
+      <c r="N66" s="17">
+        <f t="shared" si="38"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="O66" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+236</v>
+      </c>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
@@ -4571,9 +5165,9 @@
       <c r="E67" s="16">
         <v>59</v>
       </c>
-      <c r="F67" s="17" t="e">
+      <c r="F67" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>4738.50</v>
       </c>
       <c r="G67" s="17" t="e">
         <f t="shared" si="33"/>
@@ -4583,9 +5177,9 @@
         <f t="shared" si="5"/>
         <v>4738.5</v>
       </c>
-      <c r="I67" s="16" t="e" cm="1">
+      <c r="I67" s="16" cm="1">
         <f t="array" ref="I67">IF(AND(H66&gt;100,H67&lt;10),INDEX(L:L,MATCH(I66,L:L,0)+1,0),I66)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J67" s="16" t="e">
         <f t="shared" si="12"/>
@@ -4738,7 +5332,7 @@
         <v>#N/A</v>
       </c>
       <c r="J73" s="16" t="e">
-        <f t="shared" ref="J73:J78" si="38">VLOOKUP(I73,L:O,4,FALSE)</f>
+        <f t="shared" ref="J73:J78" si="40">VLOOKUP(I73,L:O,4,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4763,7 +5357,7 @@
         <v>#N/A</v>
       </c>
       <c r="J74" s="16" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4780,7 +5374,7 @@
         <v>#N/A</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" ref="H75:H78" si="39">IF(ROUNDUP(H74*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H74*((100+$B$10)/100)/10000,4),ROUNDUP(H74*((100+$B$10)/100),2))</f>
+        <f t="shared" ref="H75:H78" si="41">IF(ROUNDUP(H74*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H74*((100+$B$10)/100)/10000,4),ROUNDUP(H74*((100+$B$10)/100),2))</f>
         <v>3112.83</v>
       </c>
       <c r="I75" s="16" t="e" cm="1">
@@ -4788,7 +5382,7 @@
         <v>#N/A</v>
       </c>
       <c r="J75" s="16" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4805,7 +5399,7 @@
         <v>#N/A</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9338.49</v>
       </c>
       <c r="I76" s="16" t="e" cm="1">
@@ -4813,7 +5407,7 @@
         <v>#N/A</v>
       </c>
       <c r="J76" s="16" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4830,7 +5424,7 @@
         <v>#N/A</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2.8016000000000001</v>
       </c>
       <c r="I77" s="16" t="e" cm="1">
@@ -4838,7 +5432,7 @@
         <v>#N/A</v>
       </c>
       <c r="J77" s="16" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4855,7 +5449,7 @@
         <v>#N/A</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>8.41</v>
       </c>
       <c r="I78" s="16" t="e" cm="1">
@@ -4863,7 +5457,7 @@
         <v>#N/A</v>
       </c>
       <c r="J78" s="16" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
     </row>

--- a/Assets/06.Table/YeonokTowerTable.xlsx
+++ b/Assets/06.Table/YeonokTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B5A70-6305-468A-A152-21CB1BF66F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCC7EE3-2307-4BEE-B3FA-8E9D522C0561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,6 +390,14 @@
   </si>
   <si>
     <t>군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +654,29 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1023,11 +1053,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2406,21 +2436,314 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>10003</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1.0979000000000002E+236</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>10003</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3.2999999999999999E+236</v>
+      </c>
+      <c r="G44">
+        <v>1000</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>10003</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>9.9000000000000006E+236</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>10003</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2.97E+237</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>10003</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>8.9099999999999996E+237</v>
+      </c>
+      <c r="G47">
+        <v>1000</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>10003</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2.6730000000000005E+238</v>
+      </c>
+      <c r="G48">
+        <v>1000</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>10003</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>8.0190000000000002E+238</v>
+      </c>
+      <c r="G49">
+        <v>1000</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>10003</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2.4057E+239</v>
+      </c>
+      <c r="G50">
+        <v>1000</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>10003</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>7.2171000000000008E+239</v>
+      </c>
+      <c r="G51">
+        <v>1000</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>11800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J21 A22:E26 G22:J26 G27:H42 J27:J42 E27:E34 B26:B42 A27:A42">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="A2:J21 A22:E26 E27:E34 B26:B51 A27:A51">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I42">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="C27:C51">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$C27=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C42">
+  <conditionalFormatting sqref="G22:J42 J43:J51">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$C22=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:I51">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C27=5</formula>
+      <formula>$C43=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2432,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G50" sqref="G35:G50"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4831,23 +5154,23 @@
       </c>
       <c r="F60" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>2.16520</v>
-      </c>
-      <c r="G60" s="17" t="e">
+        <v>2.1652결</v>
+      </c>
+      <c r="G60" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>2.1652000000000001E+240</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" si="5"/>
         <v>2.1652</v>
       </c>
-      <c r="I60" s="16" cm="1">
+      <c r="I60" s="16" t="str" cm="1">
         <f t="array" ref="I60">IF(AND(H59&gt;100,H60&lt;10),INDEX(L:L,MATCH(I59,L:L,0)+1,0),I59)</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="16" t="e">
+        <v>결</v>
+      </c>
+      <c r="J60" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+240</v>
       </c>
       <c r="L60" s="16" t="s">
         <v>82</v>
@@ -4879,23 +5202,23 @@
       </c>
       <c r="F61" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>6.50</v>
-      </c>
-      <c r="G61" s="17" t="e">
+        <v>6.5결</v>
+      </c>
+      <c r="G61" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>6.5000000000000002E+240</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
-      <c r="I61" s="16" cm="1">
+      <c r="I61" s="16" t="str" cm="1">
         <f t="array" ref="I61">IF(AND(H60&gt;100,H61&lt;10),INDEX(L:L,MATCH(I60,L:L,0)+1,0),I60)</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="16" t="e">
+        <v>결</v>
+      </c>
+      <c r="J61" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+240</v>
       </c>
       <c r="L61" s="16" t="s">
         <v>79</v>
@@ -4927,23 +5250,23 @@
       </c>
       <c r="F62" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>19.50</v>
-      </c>
-      <c r="G62" s="17" t="e">
+        <v>19.5결</v>
+      </c>
+      <c r="G62" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.9500000000000001E+241</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="5"/>
         <v>19.5</v>
       </c>
-      <c r="I62" s="16" cm="1">
+      <c r="I62" s="16" t="str" cm="1">
         <f t="array" ref="I62">IF(AND(H61&gt;100,H62&lt;10),INDEX(L:L,MATCH(I61,L:L,0)+1,0),I61)</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="16" t="e">
+        <v>결</v>
+      </c>
+      <c r="J62" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+240</v>
       </c>
       <c r="L62" s="16" t="s">
         <v>83</v>
@@ -4975,23 +5298,23 @@
       </c>
       <c r="F63" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>58.50</v>
-      </c>
-      <c r="G63" s="17" t="e">
+        <v>58.5결</v>
+      </c>
+      <c r="G63" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>5.8499999999999995E+241</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="I63" s="16" cm="1">
+      <c r="I63" s="16" t="str" cm="1">
         <f t="array" ref="I63">IF(AND(H62&gt;100,H63&lt;10),INDEX(L:L,MATCH(I62,L:L,0)+1,0),I62)</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="16" t="e">
+        <v>결</v>
+      </c>
+      <c r="J63" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+240</v>
       </c>
       <c r="L63" s="16" t="s">
         <v>84</v>
@@ -5023,23 +5346,23 @@
       </c>
       <c r="F64" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>175.50</v>
-      </c>
-      <c r="G64" s="17" t="e">
+        <v>175.5결</v>
+      </c>
+      <c r="G64" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.755E+242</v>
       </c>
       <c r="H64" s="17">
         <f t="shared" si="5"/>
         <v>175.5</v>
       </c>
-      <c r="I64" s="16" cm="1">
+      <c r="I64" s="16" t="str" cm="1">
         <f t="array" ref="I64">IF(AND(H63&gt;100,H64&lt;10),INDEX(L:L,MATCH(I63,L:L,0)+1,0),I63)</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="16" t="e">
+        <v>결</v>
+      </c>
+      <c r="J64" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+240</v>
       </c>
       <c r="L64" s="16" t="s">
         <v>85</v>
@@ -5071,23 +5394,23 @@
       </c>
       <c r="F65" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>526.50</v>
-      </c>
-      <c r="G65" s="17" t="e">
+        <v>526.5결</v>
+      </c>
+      <c r="G65" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>5.2649999999999999E+242</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="5"/>
         <v>526.5</v>
       </c>
-      <c r="I65" s="16" cm="1">
+      <c r="I65" s="16" t="str" cm="1">
         <f t="array" ref="I65">IF(AND(H64&gt;100,H65&lt;10),INDEX(L:L,MATCH(I64,L:L,0)+1,0),I64)</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="16" t="e">
+        <v>결</v>
+      </c>
+      <c r="J65" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+240</v>
       </c>
       <c r="L65" s="16" t="s">
         <v>86</v>
@@ -5119,23 +5442,23 @@
       </c>
       <c r="F66" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>1579.50</v>
-      </c>
-      <c r="G66" s="17" t="e">
+        <v>1579.5결</v>
+      </c>
+      <c r="G66" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.5795E+243</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" si="5"/>
         <v>1579.5</v>
       </c>
-      <c r="I66" s="16" cm="1">
+      <c r="I66" s="16" t="str" cm="1">
         <f t="array" ref="I66">IF(AND(H65&gt;100,H66&lt;10),INDEX(L:L,MATCH(I65,L:L,0)+1,0),I65)</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="16" t="e">
+        <v>결</v>
+      </c>
+      <c r="J66" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+240</v>
       </c>
       <c r="L66" s="16" t="s">
         <v>87</v>
@@ -5167,272 +5490,300 @@
       </c>
       <c r="F67" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>4738.50</v>
-      </c>
-      <c r="G67" s="17" t="e">
+        <v>4738.5결</v>
+      </c>
+      <c r="G67" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>4.7384999999999999E+243</v>
       </c>
       <c r="H67" s="17">
         <f t="shared" si="5"/>
         <v>4738.5</v>
       </c>
-      <c r="I67" s="16" cm="1">
+      <c r="I67" s="16" t="str" cm="1">
         <f t="array" ref="I67">IF(AND(H66&gt;100,H67&lt;10),INDEX(L:L,MATCH(I66,L:L,0)+1,0),I66)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="16" t="e">
+        <v>결</v>
+      </c>
+      <c r="J67" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+240</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="M67" s="16">
+        <v>240</v>
+      </c>
+      <c r="N67" s="17">
+        <f t="shared" ref="N67:N68" si="40">POWER(10,M67)</f>
+        <v>1E+240</v>
+      </c>
+      <c r="O67" s="17" t="str">
+        <f t="shared" ref="O67:O68" si="41">RIGHT(N67,M67)</f>
+        <v>1E+240</v>
       </c>
     </row>
     <row r="68" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E68" s="16">
         <v>60</v>
       </c>
-      <c r="F68" s="17" t="e">
+      <c r="F68" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G68" s="17" t="e">
+        <v>1.4216맥</v>
+      </c>
+      <c r="G68" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.4216000000000001E+244</v>
       </c>
       <c r="H68" s="17">
         <f t="shared" si="5"/>
         <v>1.4216</v>
       </c>
-      <c r="I68" s="16" t="e" cm="1">
+      <c r="I68" s="16" t="str" cm="1">
         <f t="array" ref="I68">IF(AND(H67&gt;100,H68&lt;10),INDEX(L:L,MATCH(I67,L:L,0)+1,0),I67)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J68" s="16" t="e">
+        <v>맥</v>
+      </c>
+      <c r="J68" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+244</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M68" s="16">
+        <v>244</v>
+      </c>
+      <c r="N68" s="17">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="O68" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+244</v>
       </c>
     </row>
     <row r="69" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E69" s="16">
         <v>61</v>
       </c>
-      <c r="F69" s="17" t="e">
+      <c r="F69" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G69" s="17" t="e">
+        <v>4.27맥</v>
+      </c>
+      <c r="G69" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>4.2699999999999998E+244</v>
       </c>
       <c r="H69" s="17">
         <f t="shared" si="5"/>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I69" s="16" t="e" cm="1">
+      <c r="I69" s="16" t="str" cm="1">
         <f t="array" ref="I69">IF(AND(H68&gt;100,H69&lt;10),INDEX(L:L,MATCH(I68,L:L,0)+1,0),I68)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J69" s="16" t="e">
+        <v>맥</v>
+      </c>
+      <c r="J69" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+244</v>
       </c>
     </row>
     <row r="70" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E70" s="16">
         <v>62</v>
       </c>
-      <c r="F70" s="17" t="e">
+      <c r="F70" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G70" s="17" t="e">
+        <v>12.81맥</v>
+      </c>
+      <c r="G70" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.2810000000000001E+245</v>
       </c>
       <c r="H70" s="17">
         <f t="shared" si="5"/>
         <v>12.81</v>
       </c>
-      <c r="I70" s="16" t="e" cm="1">
+      <c r="I70" s="16" t="str" cm="1">
         <f t="array" ref="I70">IF(AND(H69&gt;100,H70&lt;10),INDEX(L:L,MATCH(I69,L:L,0)+1,0),I69)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J70" s="16" t="e">
+        <v>맥</v>
+      </c>
+      <c r="J70" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+244</v>
       </c>
     </row>
     <row r="71" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E71" s="16">
         <v>63</v>
       </c>
-      <c r="F71" s="17" t="e">
+      <c r="F71" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G71" s="17" t="e">
+        <v>38.43맥</v>
+      </c>
+      <c r="G71" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>3.8430000000000002E+245</v>
       </c>
       <c r="H71" s="17">
         <f t="shared" si="5"/>
         <v>38.43</v>
       </c>
-      <c r="I71" s="16" t="e" cm="1">
+      <c r="I71" s="16" t="str" cm="1">
         <f t="array" ref="I71">IF(AND(H70&gt;100,H71&lt;10),INDEX(L:L,MATCH(I70,L:L,0)+1,0),I70)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J71" s="16" t="e">
+        <v>맥</v>
+      </c>
+      <c r="J71" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+244</v>
       </c>
     </row>
     <row r="72" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E72" s="16">
         <v>64</v>
       </c>
-      <c r="F72" s="17" t="e">
+      <c r="F72" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G72" s="17" t="e">
+        <v>115.29맥</v>
+      </c>
+      <c r="G72" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.1529000000000002E+246</v>
       </c>
       <c r="H72" s="17">
         <f t="shared" si="5"/>
         <v>115.29</v>
       </c>
-      <c r="I72" s="16" t="e" cm="1">
+      <c r="I72" s="16" t="str" cm="1">
         <f t="array" ref="I72">IF(AND(H71&gt;100,H72&lt;10),INDEX(L:L,MATCH(I71,L:L,0)+1,0),I71)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J72" s="16" t="e">
+        <v>맥</v>
+      </c>
+      <c r="J72" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+244</v>
       </c>
     </row>
     <row r="73" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E73" s="16">
         <v>65</v>
       </c>
-      <c r="F73" s="17" t="e">
+      <c r="F73" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G73" s="17" t="e">
+        <v>345.87맥</v>
+      </c>
+      <c r="G73" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>3.4587000000000004E+246</v>
       </c>
       <c r="H73" s="17">
         <f t="shared" si="5"/>
         <v>345.87</v>
       </c>
-      <c r="I73" s="16" t="e" cm="1">
+      <c r="I73" s="16" t="str" cm="1">
         <f t="array" ref="I73">IF(AND(H72&gt;100,H73&lt;10),INDEX(L:L,MATCH(I72,L:L,0)+1,0),I72)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J73" s="16" t="e">
-        <f t="shared" ref="J73:J78" si="40">VLOOKUP(I73,L:O,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>맥</v>
+      </c>
+      <c r="J73" s="16" t="str">
+        <f t="shared" ref="J73:J78" si="42">VLOOKUP(I73,L:O,4,FALSE)</f>
+        <v>1E+244</v>
       </c>
     </row>
     <row r="74" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E74" s="16">
         <v>66</v>
       </c>
-      <c r="F74" s="17" t="e">
+      <c r="F74" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G74" s="17" t="e">
+        <v>1037.61맥</v>
+      </c>
+      <c r="G74" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.0376099999999999E+247</v>
       </c>
       <c r="H74" s="17">
         <f t="shared" si="5"/>
         <v>1037.6099999999999</v>
       </c>
-      <c r="I74" s="16" t="e" cm="1">
+      <c r="I74" s="16" t="str" cm="1">
         <f t="array" ref="I74">IF(AND(H73&gt;100,H74&lt;10),INDEX(L:L,MATCH(I73,L:L,0)+1,0),I73)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J74" s="16" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
+        <v>맥</v>
+      </c>
+      <c r="J74" s="16" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+244</v>
       </c>
     </row>
     <row r="75" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E75" s="16">
         <v>67</v>
       </c>
-      <c r="F75" s="17" t="e">
+      <c r="F75" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G75" s="17" t="e">
+        <v>3112.83맥</v>
+      </c>
+      <c r="G75" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>3.1128299999999999E+247</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" ref="H75:H78" si="41">IF(ROUNDUP(H74*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H74*((100+$B$10)/100)/10000,4),ROUNDUP(H74*((100+$B$10)/100),2))</f>
+        <f t="shared" ref="H75:H78" si="43">IF(ROUNDUP(H74*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H74*((100+$B$10)/100)/10000,4),ROUNDUP(H74*((100+$B$10)/100),2))</f>
         <v>3112.83</v>
       </c>
-      <c r="I75" s="16" t="e" cm="1">
+      <c r="I75" s="16" t="str" cm="1">
         <f t="array" ref="I75">IF(AND(H74&gt;100,H75&lt;10),INDEX(L:L,MATCH(I74,L:L,0)+1,0),I74)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J75" s="16" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
+        <v>맥</v>
+      </c>
+      <c r="J75" s="16" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+244</v>
       </c>
     </row>
     <row r="76" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E76" s="16">
         <v>68</v>
       </c>
-      <c r="F76" s="17" t="e">
+      <c r="F76" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G76" s="17" t="e">
+        <v>9338.49맥</v>
+      </c>
+      <c r="G76" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>9.3384900000000004E+247</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9338.49</v>
       </c>
-      <c r="I76" s="16" t="e" cm="1">
+      <c r="I76" s="16" t="str" cm="1">
         <f t="array" ref="I76">IF(AND(H75&gt;100,H76&lt;10),INDEX(L:L,MATCH(I75,L:L,0)+1,0),I75)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J76" s="16" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
+        <v>맥</v>
+      </c>
+      <c r="J76" s="16" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+244</v>
       </c>
     </row>
     <row r="77" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E77" s="16">
         <v>69</v>
       </c>
-      <c r="F77" s="17" t="e">
+      <c r="F77" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>2.80160</v>
       </c>
       <c r="G77" s="17" t="e">
         <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2.8016000000000001</v>
       </c>
-      <c r="I77" s="16" t="e" cm="1">
+      <c r="I77" s="16" cm="1">
         <f t="array" ref="I77">IF(AND(H76&gt;100,H77&lt;10),INDEX(L:L,MATCH(I76,L:L,0)+1,0),I76)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J77" s="16" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5440,24 +5791,24 @@
       <c r="E78" s="16">
         <v>70</v>
       </c>
-      <c r="F78" s="17" t="e">
+      <c r="F78" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>8.410</v>
       </c>
       <c r="G78" s="17" t="e">
         <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>8.41</v>
       </c>
-      <c r="I78" s="16" t="e" cm="1">
+      <c r="I78" s="16" cm="1">
         <f t="array" ref="I78">IF(AND(H77&gt;100,H78&lt;10),INDEX(L:L,MATCH(I77,L:L,0)+1,0),I77)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J78" s="16" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
     </row>

--- a/Assets/06.Table/YeonokTowerTable.xlsx
+++ b/Assets/06.Table/YeonokTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCC7EE3-2307-4BEE-B3FA-8E9D522C0561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC2F4BD-34CA-413F-93FD-E7B6BBAADEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,29 +654,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -1053,11 +1031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2724,26 +2702,245 @@
         <v>11800</v>
       </c>
     </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>10003</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2.1652000000000001E+240</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>10003</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>6.5000000000000002E+240</v>
+      </c>
+      <c r="G53">
+        <v>1000</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>10003</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1.9500000000000001E+241</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>10003</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>5.8499999999999995E+241</v>
+      </c>
+      <c r="G55">
+        <v>1000</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>10003</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1.755E+242</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>10003</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>5.2649999999999999E+242</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>10003</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1.5795E+243</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>13200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J21 A22:E26 E27:E34 B26:B51 A27:A51">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="A2:J21 A22:E26 B26:B51 E27:E34 A27:A51 A52:B58">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C51">
-    <cfRule type="expression" dxfId="2" priority="2">
+  <conditionalFormatting sqref="C27:C58">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C27=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:J42 J43:J51">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="G22:J58">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C22=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:I51">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C43=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2755,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51:G59"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
